--- a/Design/Excel/BehaveConfig.xlsx
+++ b/Design/Excel/BehaveConfig.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/Design/Excel/BehaveConfig.xlsx
+++ b/Design/Excel/BehaveConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,15 @@
     <t>Assets/Res/Configs/BehaveConfigs/AI_CloseSingleAttack.bytes</t>
   </si>
   <si>
+    <t>默认远程角色攻击</t>
+  </si>
+  <si>
+    <t>1896355329654915072</t>
+  </si>
+  <si>
+    <t>Assets/Res/Configs/BehaveConfigs/AI_FarSingleAttack.bytes</t>
+  </si>
+  <si>
     <t>默认碰撞体行为树</t>
   </si>
   <si>
@@ -71,19 +80,27 @@
   </si>
   <si>
     <t>Assets/Res/Configs/SkillConfigs/Skill_CloseSingleAttack.bytes</t>
+  </si>
+  <si>
+    <t>默认远程攻击</t>
+  </si>
+  <si>
+    <t>1897227379814694913</t>
+  </si>
+  <si>
+    <t>Assets/Res/Configs/SkillConfigs/Skill_FarSingleAttack.bytes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -711,21 +728,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1074,10 +1091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1144,14 +1161,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8">
-        <v>10000</v>
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="1">
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1160,7 +1177,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -1172,11 +1189,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="9"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
+        <v>10001</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>10002</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="9"/>
@@ -1252,6 +1291,9 @@
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Excel/BehaveConfig.xlsx
+++ b/Design/Excel/BehaveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23670" windowHeight="10320"/>
+    <workbookView windowWidth="19980" windowHeight="7520"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -46,49 +46,22 @@
     <t>资源名</t>
   </si>
   <si>
-    <t>默认近战角色攻击</t>
+    <t>默认碰撞体行为树</t>
+  </si>
+  <si>
+    <t>1807319661176422408</t>
+  </si>
+  <si>
+    <t>Assets/Res/Configs/BehaveConfigs/Collider_DefaultColliderBehave.bytes</t>
+  </si>
+  <si>
+    <t>默认AI行为</t>
   </si>
   <si>
     <t>1882230831485810000</t>
   </si>
   <si>
-    <t>Assets/Res/Configs/BehaveConfigs/AI_CloseSingleAttack.bytes</t>
-  </si>
-  <si>
-    <t>默认远程角色攻击</t>
-  </si>
-  <si>
-    <t>1896355329654915072</t>
-  </si>
-  <si>
-    <t>Assets/Res/Configs/BehaveConfigs/AI_FarSingleAttack.bytes</t>
-  </si>
-  <si>
-    <t>默认碰撞体行为树</t>
-  </si>
-  <si>
-    <t>1807319661176422408</t>
-  </si>
-  <si>
-    <t>Assets/Res/Configs/BehaveConfigs/Collider_DefaultColliderBehave.bytes</t>
-  </si>
-  <si>
-    <t>默认近战攻击</t>
-  </si>
-  <si>
-    <t>1882648525645283328</t>
-  </si>
-  <si>
-    <t>Assets/Res/Configs/SkillConfigs/Skill_CloseSingleAttack.bytes</t>
-  </si>
-  <si>
-    <t>默认远程攻击</t>
-  </si>
-  <si>
-    <t>1897227379814694913</t>
-  </si>
-  <si>
-    <t>Assets/Res/Configs/SkillConfigs/Skill_FarSingleAttack.bytes</t>
+    <t>Assets/Res/Configs/BehaveConfigs/BaseAI.bytes</t>
   </si>
 </sst>
 </file>
@@ -722,26 +695,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1091,209 +1058,167 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.2666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.6333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.2666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.45" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.725" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="20.2636363636364" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6363636363636" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.3727272727273" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.2636363636364" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44545454545455" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.72727272727273" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="13.5" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="13.5" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="13.5" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
+        <v>10001</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8">
-        <v>10000</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
-        <v>10001</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
-        <v>10002</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="6" spans="3:3">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="9"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="9"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="9"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="9"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="9"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="9"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="9"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="9"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="9"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="9"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="9"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="9"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="9"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="9"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="9"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="9"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="9"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="9"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="9"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="9"/>
+      <c r="C31" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
